--- a/interest-calculator/assets/illegal-interest.xlsx
+++ b/interest-calculator/assets/illegal-interest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>ריבית פיגורים צמודה</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>01/06/1993</t>
+  </si>
+  <si>
+    <t>13/04/1989</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,7 +728,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,19 +752,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>32611</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>34121</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/interest-calculator/assets/illegal-interest.xlsx
+++ b/interest-calculator/assets/illegal-interest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F9409-EDCB-4791-89BB-6F3FD1EB0166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
   <si>
     <t>ריבית פיגורים צמודה</t>
   </si>
@@ -347,17 +348,26 @@
   </si>
   <si>
     <t>5.0</t>
+  </si>
+  <si>
+    <t>01/10/2021</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,10 +392,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,26 +735,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -751,23 +762,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -775,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -783,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -791,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -799,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -807,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -815,7 +826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -823,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -831,7 +842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -839,7 +850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -847,7 +858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -855,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -863,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -871,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -879,7 +890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -887,7 +898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -895,7 +906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -903,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -911,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -919,7 +930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -927,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -935,7 +946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -943,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -951,7 +962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -959,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -967,7 +978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -975,7 +986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -983,7 +994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -991,7 +1002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1007,7 +1018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1023,7 +1034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1039,7 +1050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1063,7 +1074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -1071,7 +1082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -1111,7 +1122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -1119,7 +1130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -1135,7 +1146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -1151,7 +1162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -1167,7 +1178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -1175,7 +1186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -1207,7 +1218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -1231,7 +1242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -1239,7 +1250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -1255,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -1271,7 +1282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -1311,7 +1322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>102</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>104</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>105</v>
       </c>
@@ -1351,11 +1362,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>106</v>
       </c>
       <c r="B78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/interest-calculator/assets/illegal-interest.xlsx
+++ b/interest-calculator/assets/illegal-interest.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F9409-EDCB-4791-89BB-6F3FD1EB0166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E96FCC-43D4-4F78-A87F-BF1976747613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
   <si>
     <t>ריבית פיגורים צמודה</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
   </si>
 </sst>
 </file>
@@ -392,9 +398,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -736,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:B81"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,10 +756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1371,27 +1378,43 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>49</v>
+      <c r="B81" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
